--- a/6. Formatos/Formato - Hoja de Color.xlsx
+++ b/6. Formatos/Formato - Hoja de Color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\6. Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8108A963-0C1A-422D-B8AD-65B48BFA645F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15922C25-5196-436A-B3CF-9430391E18C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7FBB2A57-AF21-4552-B283-0FD29E70E01E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="53">
   <si>
     <t>DD / MM / AAAA</t>
   </si>
@@ -189,36 +189,17 @@
     <t>xx(g.) + xx(g.) + xx(mg.) + xx(g.) + xx(mg.) + xx(g.)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">📋 Firma de </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>recepción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> autorizando el producto.</t>
-    </r>
-  </si>
-  <si>
     <t>No. Tubos o Cant. (g)</t>
+  </si>
+  <si>
+    <t>31.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,12 +243,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -299,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -710,11 +685,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,58 +766,142 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -788,19 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,136 +919,118 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -963,15 +1055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9293</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>151087</xdr:rowOff>
+      <xdr:rowOff>74341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199793</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>151087</xdr:rowOff>
+      <xdr:rowOff>74342</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -985,9 +1077,121 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1727639"/>
-          <a:ext cx="6995948" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="9293" y="1654097"/>
+          <a:ext cx="6950927" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>147273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>147274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector recto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ED3F5C-843F-4DBE-8244-98FE2DDCB222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="24868311"/>
+          <a:ext cx="6967904" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dashDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0844366E-B77B-438A-B526-4F4CBFB36A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="0" y="28180081"/>
+          <a:ext cx="6967904" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1316,15 +1520,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C228A6F-D15B-434D-BC78-18F2874842FC}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A63" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:K67"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.85546875" style="4" customWidth="1"/>
     <col min="4" max="7" width="11.42578125" style="4"/>
     <col min="8" max="9" width="11.42578125" style="4" customWidth="1"/>
@@ -1342,12 +1546,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="2"/>
@@ -1356,1067 +1560,1809 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="53" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="60"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="7" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="61"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
     </row>
     <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58" t="s">
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="21" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="65"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="33"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="72"/>
     </row>
     <row r="36" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71" t="s">
+      <c r="E36" s="33"/>
+      <c r="F36" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="73"/>
+      <c r="K36" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="69"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="71" t="s">
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="73"/>
-      <c r="K36" s="74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="63"/>
+    </row>
+    <row r="70" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="65"/>
+    </row>
+    <row r="71" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="77"/>
+    </row>
+    <row r="73" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-    </row>
-    <row r="39" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="41"/>
-    </row>
-    <row r="40" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="41"/>
-    </row>
-    <row r="41" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-    </row>
-    <row r="42" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="41"/>
-    </row>
-    <row r="43" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="14"/>
+    </row>
+    <row r="78" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-    </row>
-    <row r="44" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B78" s="79"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="80"/>
+      <c r="K78" s="81"/>
+    </row>
+    <row r="79" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="63"/>
+    </row>
+    <row r="81" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="40"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="65"/>
+    </row>
+    <row r="82" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="51"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="14"/>
+    </row>
+    <row r="84" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="14"/>
+    </row>
+    <row r="85" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="14"/>
+    </row>
+    <row r="86" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="87" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="89" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="79"/>
+      <c r="C89" s="79"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="80"/>
+      <c r="K89" s="81"/>
+    </row>
+    <row r="90" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="62"/>
+      <c r="J91" s="62"/>
+      <c r="K91" s="63"/>
+    </row>
+    <row r="92" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="65"/>
+    </row>
+    <row r="93" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="62"/>
+      <c r="I93" s="62"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="51"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="14"/>
+    </row>
+    <row r="95" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="14"/>
+    </row>
+    <row r="96" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="49"/>
+      <c r="K98" s="14"/>
+    </row>
+    <row r="99" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="49"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="100" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="14"/>
+    </row>
+    <row r="101" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="41"/>
-    </row>
-    <row r="45" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-    </row>
-    <row r="46" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-    </row>
-    <row r="47" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-    </row>
-    <row r="48" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-    </row>
-    <row r="49" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-    </row>
-    <row r="50" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-    </row>
-    <row r="51" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-    </row>
-    <row r="52" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-    </row>
-    <row r="53" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-    </row>
-    <row r="54" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
-    </row>
-    <row r="55" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-    </row>
-    <row r="56" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
-    </row>
-    <row r="57" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="41"/>
-    </row>
-    <row r="58" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="41"/>
-    </row>
-    <row r="59" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="41"/>
-    </row>
-    <row r="60" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="41"/>
-    </row>
-    <row r="61" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="41"/>
-    </row>
-    <row r="62" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="41"/>
-    </row>
-    <row r="63" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="41"/>
-    </row>
-    <row r="64" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41"/>
-    </row>
-    <row r="65" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="41"/>
-    </row>
-    <row r="66" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="75"/>
-    </row>
-    <row r="67" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="72"/>
+      <c r="B101" s="79"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="80"/>
+      <c r="K101" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="189">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="288">
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="I91:K91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:K92"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:K81"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:K70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:J27"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="B30:C30"/>
@@ -2441,145 +3387,40 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G14:J14"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:J27"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D20:F20"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="1.0416666666666666E-2" bottom="4.0064102564102567E-2" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
